--- a/data/04-10-2025-Categories.xlsx
+++ b/data/04-10-2025-Categories.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>Default placeholder for JC types.</t>
+  </si>
+  <si>
+    <t>d9fc31d3-9241-4d71-960f-181b36648ad0</t>
+  </si>
+  <si>
+    <t>SPLICE_TYPES</t>
+  </si>
+  <si>
+    <t>Default entry for Splice Types category</t>
   </si>
 </sst>
 </file>
@@ -286,13 +295,13 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -634,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1102,35 +1111,67 @@
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="8">
         <v>45920</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="8">
         <v>45920</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="11">
+        <v>45934.451659004626</v>
+      </c>
+      <c r="J16" s="11">
+        <v>45934.451659004626</v>
       </c>
     </row>
   </sheetData>
